--- a/计算结果.xlsx
+++ b/计算结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/程序/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_15CDF1FCDF5D2C0F62355476585DCE3A8743B7A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3EC2277-EEA8-4714-94BC-73DD6902B53A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_15CDF1FCDF5D2C0F62355476585DCE3A8743B7A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC1A081-4825-4728-BDEC-922BC7327490}"/>
   <bookViews>
-    <workbookView xWindow="-26385" yWindow="4830" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,13 +343,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,12 +662,15 @@
   <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J2" sqref="J2:J198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="41.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -721,11 +730,11 @@
       <c r="I2">
         <v>0.17460317460317459</v>
       </c>
-      <c r="J2">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J2" s="3">
+        <v>4.29405582155786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -753,11 +762,11 @@
       <c r="I3">
         <v>9.375E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -785,11 +794,11 @@
       <c r="I4">
         <v>0.1785714285714286</v>
       </c>
-      <c r="J4">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="3">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -817,11 +826,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>-29814.199999999899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="3">
+        <v>0.46459835653194698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -849,11 +858,11 @@
       <c r="I6">
         <v>0.15151515151515149</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>3.34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -881,11 +890,11 @@
       <c r="I7">
         <v>0.1222222222222222</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>11.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -913,11 +922,11 @@
       <c r="I8">
         <v>0.11956521739130439</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>7.41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -945,11 +954,11 @@
       <c r="I9">
         <v>0.12087912087912089</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -977,11 +986,11 @@
       <c r="I10">
         <v>0.12087912087912089</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1009,11 +1018,11 @@
       <c r="I11">
         <v>0.12087912087912089</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>-0.38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1041,11 +1050,11 @@
       <c r="I12">
         <v>0.65625</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1073,11 +1082,11 @@
       <c r="I13">
         <v>2.777777777777778E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1105,11 +1114,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1137,11 +1146,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15" s="3">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1169,11 +1178,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1201,11 +1210,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1233,11 +1242,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1265,11 +1274,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1297,11 +1306,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1329,11 +1338,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="3">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1361,11 +1370,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1393,11 +1402,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="3">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1425,11 +1434,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J24" s="3">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1457,11 +1466,11 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1489,11 +1498,11 @@
       <c r="I26">
         <v>0.16</v>
       </c>
-      <c r="J26">
-        <v>12283.736000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J26" s="3">
+        <v>9.4185477108837803E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1521,11 +1530,11 @@
       <c r="I27">
         <v>0.1395348837209302</v>
       </c>
-      <c r="J27">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1553,11 +1562,11 @@
       <c r="I28">
         <v>0.3888888888888889</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0.505</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1585,11 +1594,11 @@
       <c r="I29">
         <v>0.12087912087912089</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>1.04</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1617,11 +1626,11 @@
       <c r="I30">
         <v>1.063829787234043E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1649,11 +1658,11 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1681,11 +1690,11 @@
       <c r="I32">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J32">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J32" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1713,11 +1722,11 @@
       <c r="I33">
         <v>0.15730337078651679</v>
       </c>
-      <c r="J33">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1745,11 +1754,11 @@
       <c r="I34">
         <v>4.5454545454545463E-2</v>
       </c>
-      <c r="J34">
-        <v>15295.3849999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="3">
+        <v>0.462061043099111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1777,11 +1786,11 @@
       <c r="I35">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J35">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="3">
+        <v>2.78466295534309E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1809,11 +1818,11 @@
       <c r="I36">
         <v>3.8461538461538457E-2</v>
       </c>
-      <c r="J36">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="3">
+        <v>1.55406586826347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1841,11 +1850,11 @@
       <c r="I37">
         <v>0.1621621621621622</v>
       </c>
-      <c r="J37">
-        <v>43052.697999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="3">
+        <v>0.32231997316786798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1873,11 +1882,11 @@
       <c r="I38">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>1.4990000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1905,11 +1914,11 @@
       <c r="I39">
         <v>0.51351351351351349</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1937,11 +1946,11 @@
       <c r="I40">
         <v>0.64102564102564108</v>
       </c>
-      <c r="J40">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1969,11 +1978,11 @@
       <c r="I41">
         <v>0.625</v>
       </c>
-      <c r="J41">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2001,11 +2010,11 @@
       <c r="I42">
         <v>9.405940594059406E-2</v>
       </c>
-      <c r="J42">
-        <v>-34883.85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J42" s="3">
+        <v>0.59406447211325197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2033,11 +2042,11 @@
       <c r="I43">
         <v>9.405940594059406E-2</v>
       </c>
-      <c r="J43">
-        <v>-34883.85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="3">
+        <v>0.50686849735630202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2065,11 +2074,11 @@
       <c r="I44">
         <v>9.405940594059406E-2</v>
       </c>
-      <c r="J44">
-        <v>-34883.85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="3">
+        <v>0.53322360566263005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2097,11 +2106,11 @@
       <c r="I45">
         <v>9.405940594059406E-2</v>
       </c>
-      <c r="J45">
-        <v>-34883.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="3">
+        <v>0.56172778441071103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2129,11 +2138,11 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J46" s="4">
+        <v>-2.2500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2161,11 +2170,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J47" s="4">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2193,11 +2202,11 @@
       <c r="I48">
         <v>4.8387096774193547E-2</v>
       </c>
-      <c r="J48">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J48" s="3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2225,11 +2234,11 @@
       <c r="I49">
         <v>5.232558139534884E-2</v>
       </c>
-      <c r="J49">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J49" s="3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2257,11 +2266,11 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J50" s="3">
+        <v>0.31448479163875098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2289,11 +2298,11 @@
       <c r="I51">
         <v>0.36</v>
       </c>
-      <c r="J51">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J51" s="3">
+        <v>0.20391304347826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2321,11 +2330,11 @@
       <c r="I52">
         <v>0.34782608695652167</v>
       </c>
-      <c r="J52">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J52" s="3">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2353,11 +2362,11 @@
       <c r="I53">
         <v>0.2982456140350877</v>
       </c>
-      <c r="J53">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J53" s="3">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2385,11 +2394,11 @@
       <c r="I54">
         <v>0.3888888888888889</v>
       </c>
-      <c r="J54">
-        <v>-242.52799999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J54" s="3">
+        <v>3.4707145330716803E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2417,11 +2426,11 @@
       <c r="I55">
         <v>2.4390243902439029E-2</v>
       </c>
-      <c r="J55">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J55" s="3">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2449,11 +2458,11 @@
       <c r="I56">
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J56">
-        <v>279663.39999999898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J56" s="3">
+        <v>1.8460674157303301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2481,11 +2490,11 @@
       <c r="I57">
         <v>3.8461538461538457E-2</v>
       </c>
-      <c r="J57">
-        <v>139533.639999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J57" s="3">
+        <v>1.00967969143048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2513,11 +2522,11 @@
       <c r="I58">
         <v>0.5</v>
       </c>
-      <c r="J58">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J58" s="3">
+        <v>-0.13194475934932001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2545,11 +2554,11 @@
       <c r="I59">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J59">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J59" s="3">
+        <v>5.6070350494717397E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2577,11 +2586,11 @@
       <c r="I60">
         <v>3.7037037037037028E-2</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>-5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2609,11 +2618,11 @@
       <c r="I61">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J61">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J61" s="3">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2641,11 +2650,11 @@
       <c r="I62">
         <v>0.27586206896551718</v>
       </c>
-      <c r="J62">
-        <v>91305.89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J62" s="3">
+        <v>0.27491467989834201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2673,11 +2682,11 @@
       <c r="I63">
         <v>6.9306930693069313E-2</v>
       </c>
-      <c r="J63">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J63" s="3">
+        <v>0.15611897328129601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2705,11 +2714,11 @@
       <c r="I64">
         <v>6.9306930693069313E-2</v>
       </c>
-      <c r="J64">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J64" s="3">
+        <v>0.157261063398629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2737,11 +2746,11 @@
       <c r="I65">
         <v>0.55263157894736847</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2769,11 +2778,11 @@
       <c r="I66">
         <v>0.26415094339622641</v>
       </c>
-      <c r="J66">
-        <v>91305.89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J66" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2801,11 +2810,11 @@
       <c r="I67">
         <v>0.25</v>
       </c>
-      <c r="J67">
-        <v>91305.89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J67" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -2833,11 +2842,11 @@
       <c r="I68">
         <v>0.1818181818181818</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -2865,11 +2874,11 @@
       <c r="I69">
         <v>9.9009900990099015E-2</v>
       </c>
-      <c r="J69">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J69" s="3">
+        <v>-9.5949018950192796E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2897,11 +2906,11 @@
       <c r="I70">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="3">
         <v>0.47</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2929,11 +2938,11 @@
       <c r="I71">
         <v>0.36</v>
       </c>
-      <c r="J71">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J71" s="3">
+        <v>2.7073015873015801E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2961,11 +2970,11 @@
       <c r="I72">
         <v>0.34782608695652167</v>
       </c>
-      <c r="J72">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J72" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2993,11 +3002,11 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J73" s="3">
+        <v>0.13405767195767099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -3025,11 +3034,11 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J74" s="3">
+        <v>4.0168783068783E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -3057,11 +3066,11 @@
       <c r="I75">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="J75">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J75" s="3">
+        <v>0.30853714573201402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -3089,11 +3098,11 @@
       <c r="I76">
         <v>0.36</v>
       </c>
-      <c r="J76">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J76" s="3">
+        <v>0.127222371289619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -3121,11 +3130,11 @@
       <c r="I77">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J77">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J77" s="3">
+        <v>3.3739057521381802E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -3153,11 +3162,11 @@
       <c r="I78">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="3">
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -3185,11 +3194,11 @@
       <c r="I79">
         <v>0.5</v>
       </c>
-      <c r="J79">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J79" s="3">
+        <v>0.10782049304041499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -3217,11 +3226,11 @@
       <c r="I80">
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="J80">
-        <v>1.4990000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J80" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -3249,11 +3258,11 @@
       <c r="I81">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J81">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J81" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -3281,11 +3290,11 @@
       <c r="I82">
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="3">
         <v>0.18</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -3313,11 +3322,11 @@
       <c r="I83">
         <v>0.04</v>
       </c>
-      <c r="J83">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J83" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -3345,11 +3354,11 @@
       <c r="I84">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>57</v>
       </c>
@@ -3377,11 +3386,11 @@
       <c r="I85">
         <v>0.59090909090909094</v>
       </c>
-      <c r="J85">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J85" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -3409,11 +3418,11 @@
       <c r="I86">
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -3441,11 +3450,11 @@
       <c r="I87">
         <v>3.4482758620689648E-2</v>
       </c>
-      <c r="J87">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J87" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -3473,11 +3482,11 @@
       <c r="I88">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="3">
         <v>0.47</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -3505,11 +3514,11 @@
       <c r="I89">
         <v>0.2558139534883721</v>
       </c>
-      <c r="J89">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J89" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -3537,11 +3546,11 @@
       <c r="I90">
         <v>0.1818181818181818</v>
       </c>
-      <c r="J90">
-        <v>1.4990000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J90" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -3569,11 +3578,11 @@
       <c r="I91">
         <v>0.36</v>
       </c>
-      <c r="J91">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J91" s="3">
+        <v>27.899913466375899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -3601,11 +3610,11 @@
       <c r="I92">
         <v>0.25806451612903231</v>
       </c>
-      <c r="J92">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J92" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -3633,11 +3642,11 @@
       <c r="I93">
         <v>0.2558139534883721</v>
       </c>
-      <c r="J93">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J93" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -3665,11 +3674,11 @@
       <c r="I94">
         <v>0.04</v>
       </c>
-      <c r="J94">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J94" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -3697,11 +3706,11 @@
       <c r="I95">
         <v>0.04</v>
       </c>
-      <c r="J95">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J95" s="3">
+        <v>1.0569999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3729,11 +3738,11 @@
       <c r="I96">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J96">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J96" s="3">
+        <v>4.3330000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -3761,11 +3770,11 @@
       <c r="I97">
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="J97">
-        <v>-242.52799999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J97" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -3793,11 +3802,11 @@
       <c r="I98">
         <v>5.8823529411764712E-2</v>
       </c>
-      <c r="J98">
-        <v>-242.52799999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J98" s="3">
+        <v>6.9260000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -3825,11 +3834,11 @@
       <c r="I99">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -3857,11 +3866,11 @@
       <c r="I100">
         <v>3.7037037037037028E-2</v>
       </c>
-      <c r="J100">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J100" s="3">
+        <v>7.3029999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -3889,11 +3898,11 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J101" s="3">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -3921,11 +3930,11 @@
       <c r="I102">
         <v>0.27272727272727271</v>
       </c>
-      <c r="J102">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J102" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -3953,11 +3962,11 @@
       <c r="I103">
         <v>0.36</v>
       </c>
-      <c r="J103">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J103" s="3">
+        <v>0.111476002012409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -3985,11 +3994,11 @@
       <c r="I104">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J104">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J104" s="3">
+        <v>3.1732852590977599E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -4017,11 +4026,11 @@
       <c r="I105">
         <v>0.36</v>
       </c>
-      <c r="J105">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J105" s="3">
+        <v>0.17333333333333301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -4049,11 +4058,11 @@
       <c r="I106">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="J106">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J106" s="3">
+        <v>0.21702901224215901</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4081,11 +4090,11 @@
       <c r="I107">
         <v>0.5714285714285714</v>
       </c>
-      <c r="J107">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J107" s="3">
+        <v>-4.9999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -4113,11 +4122,11 @@
       <c r="I108">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J108">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J108" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -4145,11 +4154,11 @@
       <c r="I109">
         <v>0.32075471698113212</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="3">
         <v>-3.9999999999999897E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -4177,11 +4186,11 @@
       <c r="I110">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J110">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J110" s="3">
+        <v>4.1080664095254002E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -4209,11 +4218,11 @@
       <c r="I111">
         <v>0.38775510204081631</v>
       </c>
-      <c r="J111">
-        <v>12283.736000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J111" s="3">
+        <v>9.7681955787868896E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -4241,11 +4250,11 @@
       <c r="I112">
         <v>0.5</v>
       </c>
-      <c r="J112">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J112" s="3">
+        <v>0.17830303538487299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -4273,11 +4282,11 @@
       <c r="I113">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="J113">
-        <v>-29814.199999999899</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J113" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -4305,11 +4314,11 @@
       <c r="I114">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="J114">
-        <v>-29814.199999999899</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J114" s="3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -4337,11 +4346,11 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="3">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -4369,11 +4378,11 @@
       <c r="I116">
         <v>0.4375</v>
       </c>
-      <c r="J116">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J116" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -4401,11 +4410,11 @@
       <c r="I117">
         <v>0.36</v>
       </c>
-      <c r="J117">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J117" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>63</v>
       </c>
@@ -4433,11 +4442,11 @@
       <c r="I118">
         <v>0.05</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -4465,11 +4474,11 @@
       <c r="I119">
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="J119">
-        <v>-29814.199999999899</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J119" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -4497,11 +4506,11 @@
       <c r="I120">
         <v>0.34782608695652167</v>
       </c>
-      <c r="J120">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J120" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -4529,11 +4538,11 @@
       <c r="I121">
         <v>0.5</v>
       </c>
-      <c r="J121">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J121" s="3">
+        <v>0.212227905416736</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -4561,11 +4570,11 @@
       <c r="I122">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J122">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J122" s="3">
+        <v>3.9892604393761501E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -4593,11 +4602,11 @@
       <c r="I123">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J123">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J123" s="3">
+        <v>3.1732852590977599E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4625,11 +4634,11 @@
       <c r="I124">
         <v>0.1063829787234043</v>
       </c>
-      <c r="J124">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J124" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -4657,11 +4666,11 @@
       <c r="I125">
         <v>8.8607594936708861E-2</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="3">
         <v>0.42</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4689,11 +4698,11 @@
       <c r="I126">
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="J126">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J126" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -4721,11 +4730,11 @@
       <c r="I127">
         <v>0.36</v>
       </c>
-      <c r="J127">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J127" s="3">
+        <v>0.15377677343618901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -4753,11 +4762,11 @@
       <c r="I128">
         <v>0.65625</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -4785,11 +4794,11 @@
       <c r="I129">
         <v>0.25806451612903231</v>
       </c>
-      <c r="J129">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J129" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -4817,11 +4826,11 @@
       <c r="I130">
         <v>0.5714285714285714</v>
       </c>
-      <c r="J130">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J130" s="3">
+        <v>-4.9999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4849,11 +4858,11 @@
       <c r="I131">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="J131">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J131" s="3">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -4881,11 +4890,11 @@
       <c r="I132">
         <v>0.27586206896551718</v>
       </c>
-      <c r="J132">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J132" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -4913,11 +4922,11 @@
       <c r="I133">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J133">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J133" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -4945,11 +4954,11 @@
       <c r="I134">
         <v>0.18867924528301891</v>
       </c>
-      <c r="J134">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J134" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -4977,11 +4986,11 @@
       <c r="I135">
         <v>0.16326530612244899</v>
       </c>
-      <c r="J135">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J135" s="3">
+        <v>-2.9999999999999901E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -5009,11 +5018,11 @@
       <c r="I136">
         <v>0.34782608695652167</v>
       </c>
-      <c r="J136">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J136" s="3">
+        <v>6.2949993291967099E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -5041,11 +5050,11 @@
       <c r="I137">
         <v>0.1702127659574468</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="3">
         <v>-3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>70</v>
       </c>
@@ -5073,11 +5082,11 @@
       <c r="I138">
         <v>0.125</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="3">
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -5105,11 +5114,11 @@
       <c r="I139">
         <v>0.47058823529411759</v>
       </c>
-      <c r="J139">
-        <v>43052.697999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J139" s="3">
+        <v>8.1208083179607496E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -5137,11 +5146,11 @@
       <c r="I140">
         <v>0.04</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -5169,11 +5178,11 @@
       <c r="I141">
         <v>0.04</v>
       </c>
-      <c r="J141">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J141" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -5201,11 +5210,11 @@
       <c r="I142">
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="J142">
-        <v>1.4990000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J142" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -5233,11 +5242,11 @@
       <c r="I143">
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="J143">
-        <v>1.4990000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J143" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -5265,11 +5274,11 @@
       <c r="I144">
         <v>4.5454545454545463E-2</v>
       </c>
-      <c r="J144">
-        <v>15295.3849999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J144" s="3">
+        <v>0.462061043099111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -5297,11 +5306,11 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J145" s="3">
+        <v>7.6949689753479794E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -5329,11 +5338,11 @@
       <c r="I146">
         <v>0.14634146341463411</v>
       </c>
-      <c r="J146">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J146" s="3">
+        <v>4.3158913298675099E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -5361,11 +5370,11 @@
       <c r="I147">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="J147">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J147" s="3">
+        <v>0.30853714573201402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -5393,11 +5402,11 @@
       <c r="I148">
         <v>0</v>
       </c>
-      <c r="J148">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J148" s="3">
+        <v>0.343011068254234</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -5425,11 +5434,11 @@
       <c r="I149">
         <v>0.38095238095238088</v>
       </c>
-      <c r="J149">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J149" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -5457,11 +5466,11 @@
       <c r="I150">
         <v>0.1818181818181818</v>
       </c>
-      <c r="J150">
-        <v>1.4990000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J150" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -5489,11 +5498,11 @@
       <c r="I151">
         <v>0.5</v>
       </c>
-      <c r="J151">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J151" s="3">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -5521,11 +5530,11 @@
       <c r="I152">
         <v>0.5</v>
       </c>
-      <c r="J152">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J152" s="3">
+        <v>1.42421985577729E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -5553,11 +5562,11 @@
       <c r="I153">
         <v>0</v>
       </c>
-      <c r="J153">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J153" s="3">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -5585,11 +5594,11 @@
       <c r="I154">
         <v>0.36</v>
       </c>
-      <c r="J154">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J154" s="3">
+        <v>6.02007714237799E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -5617,11 +5626,11 @@
       <c r="I155">
         <v>0</v>
       </c>
-      <c r="J155">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J155" s="3">
+        <v>4.0168783068783E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -5649,11 +5658,11 @@
       <c r="I156">
         <v>0</v>
       </c>
-      <c r="J156">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J156" s="3">
+        <v>0.32125960087204403</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -5681,11 +5690,11 @@
       <c r="I157">
         <v>0.34782608695652167</v>
       </c>
-      <c r="J157">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J157" s="3">
+        <v>9.1483221476510002E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -5713,11 +5722,11 @@
       <c r="I158">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J158">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J158" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -5745,11 +5754,11 @@
       <c r="I159">
         <v>0.38095238095238088</v>
       </c>
-      <c r="J159">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J159" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -5777,11 +5786,11 @@
       <c r="I160">
         <v>0.34482758620689657</v>
       </c>
-      <c r="J160">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J160" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -5809,11 +5818,11 @@
       <c r="I161">
         <v>0.59090909090909094</v>
       </c>
-      <c r="J161">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J161" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -5841,11 +5850,11 @@
       <c r="I162">
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="J162">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J162" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -5873,11 +5882,11 @@
       <c r="I163">
         <v>0</v>
       </c>
-      <c r="J163">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J163" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -5905,11 +5914,11 @@
       <c r="I164">
         <v>4.6511627906976737E-2</v>
       </c>
-      <c r="J164">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J164" s="3">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5937,11 +5946,11 @@
       <c r="I165">
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J165">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J165" s="3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -5969,11 +5978,11 @@
       <c r="I166">
         <v>2.222222222222222E-2</v>
       </c>
-      <c r="J166">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J166" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6001,11 +6010,11 @@
       <c r="I167">
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="J167">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J167" s="3">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -6033,11 +6042,11 @@
       <c r="I168">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J168">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J168" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -6065,11 +6074,11 @@
       <c r="I169">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="J169">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J169" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -6097,11 +6106,11 @@
       <c r="I170">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J170">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J170" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -6129,11 +6138,11 @@
       <c r="I171">
         <v>4.6511627906976737E-2</v>
       </c>
-      <c r="J171">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J171" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6161,11 +6170,11 @@
       <c r="I172">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="J172">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J172" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6193,11 +6202,11 @@
       <c r="I173">
         <v>0.05</v>
       </c>
-      <c r="J173">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J173" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -6225,11 +6234,11 @@
       <c r="I174">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="J174">
-        <v>26202.68</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J174" s="3">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -6257,11 +6266,11 @@
       <c r="I175">
         <v>0.1702127659574468</v>
       </c>
-      <c r="J175">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J175" s="3">
+        <v>4.3627881448957101E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -6289,11 +6298,11 @@
       <c r="I176">
         <v>0.34782608695652167</v>
       </c>
-      <c r="J176">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J176" s="3">
+        <v>5.2204623511655203E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -6321,11 +6330,11 @@
       <c r="I177">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="J177">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J177" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -6353,11 +6362,11 @@
       <c r="I178">
         <v>0.2558139534883721</v>
       </c>
-      <c r="J178">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J178" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>78</v>
       </c>
@@ -6385,11 +6394,11 @@
       <c r="I179">
         <v>0.55813953488372092</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -6417,11 +6426,11 @@
       <c r="I180">
         <v>0.16326530612244899</v>
       </c>
-      <c r="J180">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J180" s="3">
+        <v>-9.9999999999999699E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -6449,11 +6458,11 @@
       <c r="I181">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J181">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J181" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -6481,11 +6490,11 @@
       <c r="I182">
         <v>4.5454545454545463E-2</v>
       </c>
-      <c r="J182">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J182" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>79</v>
       </c>
@@ -6513,11 +6522,11 @@
       <c r="I183">
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="J183">
-        <v>10375.5289999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J183" s="3">
+        <v>2.57197719268824E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -6545,11 +6554,11 @@
       <c r="I184">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J184">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J184" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -6577,11 +6586,11 @@
       <c r="I185">
         <v>0.59090909090909094</v>
       </c>
-      <c r="J185">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J185" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>60</v>
       </c>
@@ -6609,11 +6618,11 @@
       <c r="I186">
         <v>4.4444444444444453E-2</v>
       </c>
-      <c r="J186">
-        <v>-3.9999999999999897E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J186" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>60</v>
       </c>
@@ -6641,11 +6650,11 @@
       <c r="I187">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J187">
-        <v>-3.9999999999999897E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J187" s="3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -6673,11 +6682,11 @@
       <c r="I188">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="3">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -6705,11 +6714,11 @@
       <c r="I189">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="3">
         <v>0.505</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -6737,11 +6746,11 @@
       <c r="I190">
         <v>0.38095238095238088</v>
       </c>
-      <c r="J190">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J190" s="3">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -6769,11 +6778,11 @@
       <c r="I191">
         <v>0.59090909090909094</v>
       </c>
-      <c r="J191">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J191" s="3">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>80</v>
       </c>
@@ -6801,11 +6810,11 @@
       <c r="I192">
         <v>5.2238805970149252E-2</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -6833,11 +6842,11 @@
       <c r="I193">
         <v>1.935483870967742E-2</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="3">
         <v>8.5</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>50</v>
       </c>
@@ -6865,11 +6874,11 @@
       <c r="I194">
         <v>4.2735042735042743E-2</v>
       </c>
-      <c r="J194">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J194" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>80</v>
       </c>
@@ -6897,11 +6906,11 @@
       <c r="I195">
         <v>7.926829268292683E-2</v>
       </c>
-      <c r="J195">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J195" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -6929,11 +6938,11 @@
       <c r="I196">
         <v>4.6511627906976737E-2</v>
       </c>
-      <c r="J196">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J196" s="3">
+        <v>0.79788026161328196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -6961,11 +6970,11 @@
       <c r="I197">
         <v>4.6511627906976737E-2</v>
       </c>
-      <c r="J197">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J197" s="3">
+        <v>0.68850075465369698</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -6993,8 +7002,8 @@
       <c r="I198">
         <v>4.6511627906976737E-2</v>
       </c>
-      <c r="J198">
-        <v>0.39400000000000002</v>
+      <c r="J198" s="3">
+        <v>0.41844205936609002</v>
       </c>
     </row>
   </sheetData>

--- a/计算结果.xlsx
+++ b/计算结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业用/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4831E4391B66560F62355476585DCE3A87402652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B121961-FD04-4CA9-943A-B11B55EF0F6F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_4831E4391B66560F62355476585DCE3A87402652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E7C9035-9511-446F-9865-FBCF78066BB0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,13 +479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>90.031694052000006</v>
       </c>
@@ -663,7 +667,7 @@
         <v>4.2940558215578663E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>86.036779432000003</v>
       </c>
@@ -752,7 +756,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>86.036779432000003</v>
       </c>
@@ -841,7 +845,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>18.010564683999998</v>
       </c>
@@ -930,7 +934,7 @@
         <v>0.46459835653194698</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>84.003371127999998</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>168.09727151199999</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>196.12857163999999</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>252.19117189599999</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>104.062600256</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>44.026214748000001</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>54.046950191999997</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>54.046950191999997</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>54.046950191999997</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>54.046950191999997</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>54.046950191999997</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>54.046950191999997</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>68.062600255999996</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>68.062600255999996</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>68.062600255999996</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>68.062600255999996</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>68.062600255999996</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>68.062600255999996</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>160.12520051199999</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>0.10683287570931729</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>160.12520051199999</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>8.3494971375522212E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>160.12520051199999</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>7.4339796064914573E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>160.12520051199999</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>6.6411362722765654E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>104.062600256</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>72.021129368000004</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>72.057514875999999</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>117.91438307200001</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>72.057514875999999</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>117.91438307200001</v>
       </c>
@@ -3422,7 +3426,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>104.062600256</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>176.10212704200001</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>0.46206104309911122</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>104.062600256</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>2.7846629553430959E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>104.062600256</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>1.5540658682634729</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>110.10955044799999</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>0.36664726340838372</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>110.10955044799999</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>0.28485130744236431</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>110.10955044799999</v>
       </c>
@@ -4045,7 +4049,7 @@
         <v>0.2527637512566423</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>110.10955044799999</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>0.22497574701862519</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>100.052429496</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>1.4990000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>116.047344116</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>116.047344116</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>86.036779432000003</v>
       </c>
@@ -4490,7 +4494,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>142.099379688</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>0.59406447211325264</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>142.099379688</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>0.50686849735630224</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>142.099379688</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>0.53322360566263005</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>142.099379688</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>0.56172778441071125</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>72.057514875999999</v>
       </c>
@@ -4935,7 +4939,7 @@
         <v>-2.2500000000000001E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>72.057514875999999</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>44.026214748000001</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>44.026214748000001</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>104.062600256</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>104.062600256</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>0.26157894736842102</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>104.062600256</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>0.1633333333333333</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>104.062600256</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>0.13322580645161289</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>104.062600256</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>128.083729624</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>3.441427155599603E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>128.083729624</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>3.4575607274577133E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>128.083729624</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>3.4816442988481452E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>128.083729624</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>3.4908701159505007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>90.031694052000006</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>222.08920892800001</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>2.1340106168771742</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>222.08920892800001</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>1.6026767754912581</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>222.08920892800001</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>1.394240988079851</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>222.08920892800001</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>1.213734423154228</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>278.15180918400063</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>1.1533443163097199</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>278.15180918400063</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>0.88824384960544633</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>278.15180918400063</v>
       </c>
@@ -6715,7 +6719,7 @@
         <v>0.78424816889271876</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>278.15180918400063</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>0.69418732413238637</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>104.062600256</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>-0.1319213984989932</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>104.062600256</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>-0.13196450564753209</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>104.062600256</v>
       </c>
@@ -7071,7 +7075,7 @@
         <v>-0.1319814160562976</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>104.062600256</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>-0.13199606056545629</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>104.062600256</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>5.7312374153395573E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>104.062600256</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>5.5020501315178723E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>104.062600256</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>5.4121427545598157E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>104.062600256</v>
       </c>
@@ -7516,7 +7520,7 @@
         <v>5.3342824601366752E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>99.068413907999997</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>0.27491467989834212</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>168.09727151199999</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>0.15691483422352109</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>168.09727151199999</v>
       </c>
@@ -7783,7 +7787,7 @@
         <v>0.1565155051215103</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>168.09727151199999</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>0.15572520941364179</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>168.09727151199999</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>0.15533418463678819</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>252.19117189599999</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>0.15798659261424541</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>252.19117189599999</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>0.1576220692330069</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>252.19117189599999</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>0.1569035244406031</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>252.19117189599999</v>
       </c>
@@ -8317,7 +8321,7 @@
         <v>0.15654940265698181</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>189.15174960799999</v>
       </c>
@@ -8406,7 +8410,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>99.068413907999997</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>99.068413907999997</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>64.012456503999999</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>104.062600256</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>-0.11498151198974919</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>104.062600256</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>-7.9861364691319839E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>104.062600256</v>
       </c>
@@ -8940,7 +8944,7 @@
         <v>-6.6084159126813161E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>104.062600256</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>-5.4153021573093943E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>104.062600256</v>
       </c>
@@ -9118,7 +9122,7 @@
         <v>3.8892307692307691E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>104.062600256</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>3.2417391304347822E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>104.062600256</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>2.2586861313868611E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>104.062600256</v>
       </c>
@@ -9385,7 +9389,7 @@
         <v>1.8767567567567572E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>104.062600256</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>68.062600255999996</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>0.17466410256410261</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>68.062600255999996</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>0.15241884057971011</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>68.062600255999996</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>0.11864501216545011</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>68.062600255999996</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>0.1055234234234234</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>104.062600256</v>
       </c>
@@ -9919,7 +9923,7 @@
         <v>5.3510256410256397E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>104.062600256</v>
       </c>
@@ -10008,7 +10012,7 @@
         <v>4.6201449275362322E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>104.062600256</v>
       </c>
@@ -10097,7 +10101,7 @@
         <v>3.5104866180048669E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>104.062600256</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>3.079369369369369E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>104.062600256</v>
       </c>
@@ -10275,7 +10279,7 @@
         <v>0.35608768076148639</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>104.062600256</v>
       </c>
@@ -10364,7 +10368,7 @@
         <v>0.26834395791428128</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>104.062600256</v>
       </c>
@@ -10453,7 +10457,7 @@
         <v>0.23392316530231219</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>104.062600256</v>
       </c>
@@ -10542,7 +10546,7 @@
         <v>0.2041145651882621</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>104.062600256</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>0.1453646348160352</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>104.062600256</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>0.1118872040847904</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>104.062600256</v>
       </c>
@@ -10809,7 +10813,7 @@
         <v>9.8754416199913861E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>104.062600256</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>8.7381347983384719E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>104.062600256</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>3.4813472451034229E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>104.062600256</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>3.2830883490639021E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>104.062600256</v>
       </c>
@@ -11165,7 +11169,7 @@
         <v>3.2053138015223318E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>104.062600256</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>3.1379606056545627E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>42.046950191999997</v>
       </c>
@@ -11343,7 +11347,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>104.062600256</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>0.1170297638660077</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>104.062600256</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>0.1000361442054773</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>104.062600256</v>
       </c>
@@ -11610,7 +11614,7 @@
         <v>9.3369754416199921E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>104.062600256</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>8.759662334181964E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>100.052429496</v>
       </c>
@@ -11788,7 +11792,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>104.062600256</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>58.041864812</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>58.041864812</v>
       </c>
@@ -12055,7 +12059,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>92.062600255999996</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>92.062600255999996</v>
       </c>
@@ -12233,7 +12237,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>75.944141999999999</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>75.944141999999999</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>104.062600256</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>100.052429496</v>
       </c>
@@ -12589,7 +12593,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>68.062600255999996</v>
       </c>
@@ -12678,7 +12682,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>104.062600256</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>117.91438307200001</v>
       </c>
@@ -12856,7 +12860,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>72.021129368000004</v>
       </c>
@@ -12945,7 +12949,7 @@
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>128.083729624</v>
       </c>
@@ -13034,7 +13038,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>168.039814124</v>
       </c>
@@ -13123,7 +13127,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>104.062600256</v>
       </c>
@@ -13212,7 +13216,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>104.062600256</v>
       </c>
@@ -13301,7 +13305,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>68.062600255999996</v>
       </c>
@@ -13390,7 +13394,7 @@
         <v>0.12645641588870579</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>68.062600255999996</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>9.8813461240909811E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>68.062600255999996</v>
       </c>
@@ -13568,7 +13572,7 @@
         <v>8.7969467183685202E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>68.062600255999996</v>
       </c>
@@ -13657,7 +13661,7 @@
         <v>7.8578507302693279E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>104.062600256</v>
       </c>
@@ -13746,7 +13750,7 @@
         <v>3.2715174812374147E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>104.062600256</v>
       </c>
@@ -13835,7 +13839,7 @@
         <v>3.0902522048584249E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>104.062600256</v>
       </c>
@@ -13924,7 +13928,7 @@
         <v>3.0191440471061329E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>104.062600256</v>
       </c>
@@ -14013,7 +14017,7 @@
         <v>2.9575639823127432E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>104.062600256</v>
       </c>
@@ -14102,7 +14106,7 @@
         <v>0.17333333333333331</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>104.062600256</v>
       </c>
@@ -14191,7 +14195,7 @@
         <v>0.2471433278418452</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>104.062600256</v>
       </c>
@@ -14280,7 +14284,7 @@
         <v>0.19157419155191091</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>104.062600256</v>
       </c>
@@ -14369,7 +14373,7 @@
         <v>0.16977509694097381</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>104.062600256</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>0.15089695832775021</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>104.062600256</v>
       </c>
@@ -14547,7 +14551,7 @@
         <v>-4.9999999999999989E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>104.062600256</v>
       </c>
@@ -14636,7 +14640,7 @@
         <v>-3.0000000000000031E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>105.05784922399999</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>-3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>104.062600256</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>4.2277869302580998E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>104.062600256</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>4.0068698746712053E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>104.062600256</v>
       </c>
@@ -14992,7 +14996,7 @@
         <v>3.9202068074105992E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>104.062600256</v>
       </c>
@@ -15081,7 +15085,7 @@
         <v>3.8451561034436553E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>160.12520051199999</v>
       </c>
@@ -15170,7 +15174,7 @@
         <v>0.11739224978403059</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>160.12520051199999</v>
       </c>
@@ -15259,7 +15263,7 @@
         <v>0.1069213698947125</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>160.12520051199999</v>
       </c>
@@ -15348,7 +15352,7 @@
         <v>8.9468826493880521E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>160.12520051199999</v>
       </c>
@@ -15437,7 +15441,7 @@
         <v>8.2119984410016583E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>104.062600256</v>
       </c>
@@ -15526,7 +15530,7 @@
         <v>0.1976425041186162</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>104.062600256</v>
       </c>
@@ -15615,7 +15619,7 @@
         <v>0.16195590283150241</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>104.062600256</v>
       </c>
@@ -15704,7 +15708,7 @@
         <v>0.14795648427401981</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>104.062600256</v>
       </c>
@@ -15793,7 +15797,7 @@
         <v>0.1358329090178213</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>18.010564683999998</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>18.010564683999998</v>
       </c>
@@ -15971,7 +15975,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>104.062600256</v>
       </c>
@@ -16060,7 +16064,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>104.062600256</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>32.026214748000001</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>18.010564683999998</v>
       </c>
@@ -16327,7 +16331,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>104.062600256</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>104.062600256</v>
       </c>
@@ -16505,7 +16509,7 @@
         <v>0.2403468790042102</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>104.062600256</v>
       </c>
@@ -16594,7 +16598,7 @@
         <v>0.1884596936407241</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>104.062600256</v>
       </c>
@@ -16683,7 +16687,7 @@
         <v>0.16810498348413039</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>104.062600256</v>
       </c>
@@ -16772,7 +16776,7 @@
         <v>0.15047768993702271</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>104.062600256</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>4.0871242906827747E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>104.062600256</v>
       </c>
@@ -16950,7 +16954,7 @@
         <v>3.9065387590902063E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>104.062600256</v>
       </c>
@@ -17039,7 +17043,7 @@
         <v>3.8356972569294837E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>104.062600256</v>
       </c>
@@ -17128,7 +17132,7 @@
         <v>3.7743481173790699E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>104.062600256</v>
       </c>
@@ -17217,7 +17221,7 @@
         <v>3.2715174812374147E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>104.062600256</v>
       </c>
@@ -17306,7 +17310,7 @@
         <v>3.0902522048584249E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>104.062600256</v>
       </c>
@@ -17395,7 +17399,7 @@
         <v>3.0191440471061329E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>104.062600256</v>
       </c>
@@ -17484,7 +17488,7 @@
         <v>2.9575639823127432E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>90.031694052000006</v>
       </c>
@@ -17573,7 +17577,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>94.078250319999995</v>
       </c>
@@ -17662,7 +17666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>90.031694052000006</v>
       </c>
@@ -17751,7 +17755,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>104.062600256</v>
       </c>
@@ -17840,7 +17844,7 @@
         <v>0.17569483800109839</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>104.062600256</v>
       </c>
@@ -17929,7 +17933,7 @@
         <v>0.13525002320903609</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>104.062600256</v>
       </c>
@@ -18018,7 +18022,7 @@
         <v>0.1193840155105558</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>104.062600256</v>
       </c>
@@ -18107,7 +18111,7 @@
         <v>0.1056439635535308</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>104.062600256</v>
       </c>
@@ -18196,7 +18200,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>68.062600255999996</v>
       </c>
@@ -18285,7 +18289,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>104.062600256</v>
       </c>
@@ -18374,7 +18378,7 @@
         <v>-4.9999999999999989E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>104.062600256</v>
       </c>
@@ -18463,7 +18467,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>104.062600256</v>
       </c>
@@ -18552,7 +18556,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>104.062600256</v>
       </c>
@@ -18641,7 +18645,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>104.062600256</v>
       </c>
@@ -18730,7 +18734,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>104.062600256</v>
       </c>
@@ -18819,7 +18823,7 @@
         <v>-2.9999999999999992E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>104.062600256</v>
       </c>
@@ -18908,7 +18912,7 @@
         <v>7.2201319787662477E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>104.062600256</v>
       </c>
@@ -18997,7 +19001,7 @@
         <v>5.5130095930682348E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>104.062600256</v>
       </c>
@@ -19086,7 +19090,7 @@
         <v>4.8433262961367241E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>104.062600256</v>
       </c>
@@ -19175,7 +19179,7 @@
         <v>4.2633767921747293E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>170.130679816</v>
       </c>
@@ -19264,7 +19268,7 @@
         <v>-3.5000000000000009E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>110.10955044799999</v>
       </c>
@@ -19353,7 +19357,7 @@
         <v>9.0233168588687546E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>110.10955044799999</v>
       </c>
@@ -19442,7 +19446,7 @@
         <v>7.3579421321367786E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>110.10955044799999</v>
       </c>
@@ -19531,7 +19535,7 @@
         <v>6.7046359327875921E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>110.10955044799999</v>
       </c>
@@ -19620,7 +19624,7 @@
         <v>6.1388690874983248E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>104.062600256</v>
       </c>
@@ -19709,7 +19713,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>104.062600256</v>
       </c>
@@ -19798,7 +19802,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>100.052429496</v>
       </c>
@@ -19887,7 +19891,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>100.052429496</v>
       </c>
@@ -19976,7 +19980,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>176.10212704200001</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>0.47780889621087308</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>176.10212704200001</v>
       </c>
@@ -20154,7 +20158,7 @@
         <v>0.44874980659136621</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>176.10212704200001</v>
       </c>
@@ -20243,7 +20247,7 @@
         <v>0.43735028005170179</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>176.10212704200001</v>
       </c>
@@ -20332,7 +20336,7 @@
         <v>0.42747822591451162</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>104.062600256</v>
       </c>
@@ -20421,7 +20425,7 @@
         <v>8.6097565440234308E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>104.062600256</v>
       </c>
@@ -20510,7 +20514,7 @@
         <v>6.9217236577440833E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>104.062600256</v>
       </c>
@@ -20599,7 +20603,7 @@
         <v>6.2595289386758596E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>104.062600256</v>
       </c>
@@ -20688,7 +20692,7 @@
         <v>5.6860645852874182E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>104.062600256</v>
       </c>
@@ -20777,7 +20781,7 @@
         <v>4.4528024894746478E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>104.062600256</v>
       </c>
@@ -20866,7 +20870,7 @@
         <v>4.2001640105214302E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>104.062600256</v>
       </c>
@@ -20955,7 +20959,7 @@
         <v>4.101057015654172E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>104.062600256</v>
       </c>
@@ -21044,7 +21048,7 @@
         <v>4.0152298003483862E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>104.062600256</v>
       </c>
@@ -21133,7 +21137,7 @@
         <v>0.35608768076148639</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>104.062600256</v>
       </c>
@@ -21222,7 +21226,7 @@
         <v>0.26834395791428128</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>104.062600256</v>
       </c>
@@ -21311,7 +21315,7 @@
         <v>0.23392316530231219</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>104.062600256</v>
       </c>
@@ -21400,7 +21404,7 @@
         <v>0.2041145651882621</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>44.026214748000001</v>
       </c>
@@ -21489,7 +21493,7 @@
         <v>0.36296448837634998</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>44.026214748000001</v>
       </c>
@@ -21578,7 +21582,7 @@
         <v>0.32614497911186757</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>44.026214748000001</v>
       </c>
@@ -21667,7 +21671,7 @@
         <v>0.31170113456843318</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>44.026214748000001</v>
       </c>
@@ -21756,7 +21760,7 @@
         <v>0.29919268390727588</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>104.062600256</v>
       </c>
@@ -21845,7 +21849,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>100.052429496</v>
       </c>
@@ -21934,7 +21938,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>104.062600256</v>
       </c>
@@ -22023,7 +22027,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>104.062600256</v>
       </c>
@@ -22112,7 +22116,7 @@
         <v>1.5709542375983889E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>104.062600256</v>
       </c>
@@ -22201,7 +22205,7 @@
         <v>1.3001892310072719E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>104.062600256</v>
       </c>
@@ -22290,7 +22294,7 @@
         <v>1.1939714203647849E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>104.062600256</v>
       </c>
@@ -22379,7 +22383,7 @@
         <v>1.10198619857966E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>104.062600256</v>
       </c>
@@ -22468,7 +22472,7 @@
         <v>6.7138422112392473E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>104.062600256</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>5.4336561968126272E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>104.062600256</v>
       </c>
@@ -22646,7 +22650,7 @@
         <v>4.9314548326870607E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>104.062600256</v>
       </c>
@@ -22735,7 +22739,7 @@
         <v>4.4965456250837477E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>104.062600256</v>
       </c>
@@ -22824,7 +22828,7 @@
         <v>5.3510256410256397E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>104.062600256</v>
       </c>
@@ -22913,7 +22917,7 @@
         <v>4.6201449275362322E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>104.062600256</v>
       </c>
@@ -23002,7 +23006,7 @@
         <v>3.5104866180048669E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>104.062600256</v>
       </c>
@@ -23091,7 +23095,7 @@
         <v>3.079369369369369E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>68.062600255999996</v>
       </c>
@@ -23180,7 +23184,7 @@
         <v>0.33995442064799558</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>68.062600255999996</v>
       </c>
@@ -23269,7 +23273,7 @@
         <v>0.30545737273711898</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>68.062600255999996</v>
       </c>
@@ -23358,7 +23362,7 @@
         <v>0.29192460146488591</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>68.062600255999996</v>
       </c>
@@ -23447,7 +23451,7 @@
         <v>0.28020514538389391</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>104.062600256</v>
       </c>
@@ -23536,7 +23540,7 @@
         <v>9.1483221476510071E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>104.062600256</v>
       </c>
@@ -23625,7 +23629,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>104.062600256</v>
       </c>
@@ -23714,7 +23718,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>104.062600256</v>
       </c>
@@ -23803,7 +23807,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>104.062600256</v>
       </c>
@@ -23892,7 +23896,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>104.062600256</v>
       </c>
@@ -23981,7 +23985,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>90.031694052000006</v>
       </c>
@@ -24070,7 +24074,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>90.031694052000006</v>
       </c>
@@ -24159,7 +24163,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>90.031694052000006</v>
       </c>
@@ -24248,7 +24252,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>90.031694052000006</v>
       </c>
@@ -24337,7 +24341,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>90.031694052000006</v>
       </c>
@@ -24426,7 +24430,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>104.062600256</v>
       </c>
@@ -24515,7 +24519,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>104.062600256</v>
       </c>
@@ -24604,7 +24608,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>104.062600256</v>
       </c>
@@ -24693,7 +24697,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>90.031694052000006</v>
       </c>
@@ -24782,7 +24786,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>90.031694052000006</v>
       </c>
@@ -24871,7 +24875,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>90.031694052000006</v>
       </c>
@@ -24960,7 +24964,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>90.031694052000006</v>
       </c>
@@ -25049,7 +25053,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>104.062600256</v>
       </c>
@@ -25138,7 +25142,7 @@
         <v>4.4290780141843983E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>104.062600256</v>
       </c>
@@ -25227,7 +25231,7 @@
         <v>4.3947068867387598E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>104.062600256</v>
       </c>
@@ -25316,7 +25320,7 @@
         <v>4.3330683624801282E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>104.062600256</v>
       </c>
@@ -25405,7 +25409,7 @@
         <v>4.3053278688524592E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>104.062600256</v>
       </c>
@@ -25494,7 +25498,7 @@
         <v>5.6379492952590163E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>104.062600256</v>
       </c>
@@ -25583,7 +25587,7 @@
         <v>4.8675718706483059E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>104.062600256</v>
       </c>
@@ -25672,7 +25676,7 @@
         <v>4.5653622002010633E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>104.062600256</v>
       </c>
@@ -25761,7 +25765,7 @@
         <v>4.3036469248291569E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>104.062600256</v>
       </c>
@@ -25850,7 +25854,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>104.062600256</v>
       </c>
@@ -25939,7 +25943,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>114.06807956</v>
       </c>
@@ -26028,7 +26032,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>104.062600256</v>
       </c>
@@ -26117,7 +26121,7 @@
         <v>-9.9999999999999742E-4</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>104.062600256</v>
       </c>
@@ -26206,7 +26210,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>54.046950191999997</v>
       </c>
@@ -26295,7 +26299,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>258.19836545200008</v>
       </c>
@@ -26384,7 +26388,7 @@
         <v>3.6402526084568933E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>258.19836545200008</v>
       </c>
@@ -26473,7 +26477,7 @@
         <v>1.6689927278353708E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>258.19836545200008</v>
       </c>
@@ -26562,7 +26566,7 @@
         <v>8.9569151227918975E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>258.19836545200008</v>
       </c>
@@ -26651,7 +26655,7 @@
         <v>2.2600830765107942E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>104.062600256</v>
       </c>
@@ -26740,7 +26744,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>104.062600256</v>
       </c>
@@ -26829,7 +26833,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>105.05784922399999</v>
       </c>
@@ -26918,7 +26922,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>105.05784922399999</v>
       </c>
@@ -27007,7 +27011,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>151.87541071999999</v>
       </c>
@@ -27096,7 +27100,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>84.093900383999994</v>
       </c>
@@ -27185,7 +27189,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>104.062600256</v>
       </c>
@@ -27274,7 +27278,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>104.062600256</v>
       </c>
@@ -27363,7 +27367,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>58.041864812</v>
       </c>
@@ -27452,7 +27456,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>28.031300128000002</v>
       </c>
@@ -27541,7 +27545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>68.062600255999996</v>
       </c>
@@ -27630,7 +27634,7 @@
         <v>0.91483800109829772</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>68.062600255999996</v>
       </c>
@@ -27719,7 +27723,7 @@
         <v>0.69901903140956212</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>68.062600255999996</v>
       </c>
@@ -27808,7 +27812,7 @@
         <v>0.61435588108573902</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>68.062600255999996</v>
       </c>
@@ -27897,7 +27901,7 @@
         <v>0.54103711644110963</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>68.062600255999996</v>
       </c>
@@ -27986,7 +27990,7 @@
         <v>0.81466776496430549</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>68.062600255999996</v>
       </c>
@@ -28075,7 +28079,7 @@
         <v>0.58185517561503963</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>68.062600255999996</v>
       </c>
@@ -28164,7 +28168,7 @@
         <v>0.49052563550193901</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>68.062600255999996</v>
       </c>
@@ -28253,7 +28257,7 @@
         <v>0.4114337397829293</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>68.062600255999996</v>
       </c>
@@ -28342,7 +28346,7 @@
         <v>0.49426505583013008</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>68.062600255999996</v>
       </c>
@@ -28431,7 +28435,7 @@
         <v>0.35435092062509682</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>68.062600255999996</v>
       </c>
@@ -28520,7 +28524,7 @@
         <v>0.29946431136004598</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>68.062600255999996</v>
       </c>
